--- a/EA_GDP.xlsx
+++ b/EA_GDP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatiana/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7B3CC6B-4EE1-9E4B-BFB6-FDF47DAB186A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A6D182-CF85-9D44-9750-A4C4EBFF0B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15240" xr2:uid="{16C6F4C4-702F-424A-BE50-2468F2D5A1F6}"/>
   </bookViews>
@@ -57,376 +57,376 @@
     <t>1991Q4</t>
   </si>
   <si>
-    <t>1991Q5</t>
-  </si>
-  <si>
-    <t>1991Q6</t>
-  </si>
-  <si>
-    <t>1991Q7</t>
-  </si>
-  <si>
-    <t>1991Q8</t>
-  </si>
-  <si>
-    <t>1991Q9</t>
-  </si>
-  <si>
-    <t>1991Q10</t>
-  </si>
-  <si>
-    <t>1991Q11</t>
-  </si>
-  <si>
-    <t>1991Q12</t>
-  </si>
-  <si>
-    <t>1991Q13</t>
-  </si>
-  <si>
-    <t>1991Q14</t>
-  </si>
-  <si>
-    <t>1991Q15</t>
-  </si>
-  <si>
-    <t>1991Q16</t>
-  </si>
-  <si>
-    <t>1991Q17</t>
-  </si>
-  <si>
-    <t>1991Q18</t>
-  </si>
-  <si>
-    <t>1991Q19</t>
-  </si>
-  <si>
-    <t>1991Q20</t>
-  </si>
-  <si>
-    <t>1991Q21</t>
-  </si>
-  <si>
-    <t>1991Q22</t>
-  </si>
-  <si>
-    <t>1991Q23</t>
-  </si>
-  <si>
-    <t>1991Q24</t>
-  </si>
-  <si>
-    <t>1991Q25</t>
-  </si>
-  <si>
-    <t>1991Q26</t>
-  </si>
-  <si>
-    <t>1991Q27</t>
-  </si>
-  <si>
-    <t>1991Q28</t>
-  </si>
-  <si>
-    <t>1991Q29</t>
-  </si>
-  <si>
-    <t>1991Q30</t>
-  </si>
-  <si>
-    <t>1991Q31</t>
-  </si>
-  <si>
-    <t>1991Q32</t>
-  </si>
-  <si>
-    <t>1991Q33</t>
-  </si>
-  <si>
-    <t>1991Q34</t>
-  </si>
-  <si>
-    <t>1991Q35</t>
-  </si>
-  <si>
-    <t>1991Q36</t>
-  </si>
-  <si>
-    <t>1991Q37</t>
-  </si>
-  <si>
-    <t>1991Q38</t>
-  </si>
-  <si>
-    <t>1991Q39</t>
-  </si>
-  <si>
-    <t>1991Q40</t>
-  </si>
-  <si>
-    <t>1991Q41</t>
-  </si>
-  <si>
-    <t>1991Q42</t>
-  </si>
-  <si>
-    <t>1991Q43</t>
-  </si>
-  <si>
-    <t>1991Q44</t>
-  </si>
-  <si>
-    <t>1991Q45</t>
-  </si>
-  <si>
-    <t>1991Q46</t>
-  </si>
-  <si>
-    <t>1991Q47</t>
-  </si>
-  <si>
-    <t>1991Q48</t>
-  </si>
-  <si>
-    <t>1991Q49</t>
-  </si>
-  <si>
-    <t>1991Q50</t>
-  </si>
-  <si>
-    <t>1991Q51</t>
-  </si>
-  <si>
-    <t>1991Q52</t>
-  </si>
-  <si>
-    <t>1991Q53</t>
-  </si>
-  <si>
-    <t>1991Q54</t>
-  </si>
-  <si>
-    <t>1991Q55</t>
-  </si>
-  <si>
-    <t>1991Q56</t>
-  </si>
-  <si>
-    <t>1991Q57</t>
-  </si>
-  <si>
-    <t>1991Q58</t>
-  </si>
-  <si>
-    <t>1991Q59</t>
-  </si>
-  <si>
-    <t>1991Q60</t>
-  </si>
-  <si>
-    <t>1991Q61</t>
-  </si>
-  <si>
-    <t>1991Q62</t>
-  </si>
-  <si>
-    <t>1991Q63</t>
-  </si>
-  <si>
-    <t>1991Q64</t>
-  </si>
-  <si>
-    <t>1991Q65</t>
-  </si>
-  <si>
-    <t>1991Q66</t>
-  </si>
-  <si>
-    <t>1991Q67</t>
-  </si>
-  <si>
-    <t>1991Q68</t>
-  </si>
-  <si>
-    <t>1991Q69</t>
-  </si>
-  <si>
-    <t>1991Q70</t>
-  </si>
-  <si>
-    <t>1991Q71</t>
-  </si>
-  <si>
-    <t>1991Q72</t>
-  </si>
-  <si>
-    <t>1991Q73</t>
-  </si>
-  <si>
-    <t>1991Q74</t>
-  </si>
-  <si>
-    <t>1991Q75</t>
-  </si>
-  <si>
-    <t>1991Q76</t>
-  </si>
-  <si>
-    <t>1991Q77</t>
-  </si>
-  <si>
-    <t>1991Q78</t>
-  </si>
-  <si>
-    <t>1991Q79</t>
-  </si>
-  <si>
-    <t>1991Q80</t>
-  </si>
-  <si>
-    <t>1991Q81</t>
-  </si>
-  <si>
-    <t>1991Q82</t>
-  </si>
-  <si>
-    <t>1991Q83</t>
-  </si>
-  <si>
-    <t>1991Q84</t>
-  </si>
-  <si>
-    <t>1991Q85</t>
-  </si>
-  <si>
-    <t>1991Q86</t>
-  </si>
-  <si>
-    <t>1991Q87</t>
-  </si>
-  <si>
-    <t>1991Q88</t>
-  </si>
-  <si>
-    <t>1991Q89</t>
-  </si>
-  <si>
-    <t>1991Q90</t>
-  </si>
-  <si>
-    <t>1991Q91</t>
-  </si>
-  <si>
-    <t>1991Q92</t>
-  </si>
-  <si>
-    <t>1991Q93</t>
-  </si>
-  <si>
-    <t>1991Q94</t>
-  </si>
-  <si>
-    <t>1991Q95</t>
-  </si>
-  <si>
-    <t>1991Q96</t>
-  </si>
-  <si>
-    <t>1991Q97</t>
-  </si>
-  <si>
-    <t>1991Q98</t>
-  </si>
-  <si>
-    <t>1991Q99</t>
-  </si>
-  <si>
-    <t>1991Q100</t>
-  </si>
-  <si>
-    <t>1991Q101</t>
-  </si>
-  <si>
-    <t>1991Q102</t>
-  </si>
-  <si>
-    <t>1991Q103</t>
-  </si>
-  <si>
-    <t>1991Q104</t>
-  </si>
-  <si>
-    <t>1991Q105</t>
-  </si>
-  <si>
-    <t>1991Q106</t>
-  </si>
-  <si>
-    <t>1991Q107</t>
-  </si>
-  <si>
-    <t>1991Q108</t>
-  </si>
-  <si>
-    <t>1991Q109</t>
-  </si>
-  <si>
-    <t>1991Q110</t>
-  </si>
-  <si>
-    <t>1991Q111</t>
-  </si>
-  <si>
-    <t>1991Q112</t>
-  </si>
-  <si>
-    <t>1991Q113</t>
-  </si>
-  <si>
-    <t>1991Q114</t>
-  </si>
-  <si>
-    <t>1991Q115</t>
-  </si>
-  <si>
-    <t>1991Q116</t>
-  </si>
-  <si>
-    <t>1991Q117</t>
-  </si>
-  <si>
-    <t>1991Q118</t>
-  </si>
-  <si>
-    <t>1991Q119</t>
-  </si>
-  <si>
-    <t>1991Q120</t>
-  </si>
-  <si>
-    <t>1991Q121</t>
-  </si>
-  <si>
-    <t>1991Q122</t>
-  </si>
-  <si>
-    <t>1991Q123</t>
-  </si>
-  <si>
-    <t>1991Q124</t>
-  </si>
-  <si>
-    <t>1991Q125</t>
-  </si>
-  <si>
-    <t>1991Q126</t>
-  </si>
-  <si>
-    <t>1991Q127</t>
-  </si>
-  <si>
-    <t>1991Q128</t>
+    <t>1992Q1</t>
+  </si>
+  <si>
+    <t>1992Q2</t>
+  </si>
+  <si>
+    <t>1992Q3</t>
+  </si>
+  <si>
+    <t>1992Q4</t>
+  </si>
+  <si>
+    <t>1993Q1</t>
+  </si>
+  <si>
+    <t>1993Q2</t>
+  </si>
+  <si>
+    <t>1993Q3</t>
+  </si>
+  <si>
+    <t>1993Q4</t>
+  </si>
+  <si>
+    <t>1994Q1</t>
+  </si>
+  <si>
+    <t>1994Q2</t>
+  </si>
+  <si>
+    <t>1994Q3</t>
+  </si>
+  <si>
+    <t>1994Q4</t>
+  </si>
+  <si>
+    <t>1995Q1</t>
+  </si>
+  <si>
+    <t>1995Q2</t>
+  </si>
+  <si>
+    <t>1995Q3</t>
+  </si>
+  <si>
+    <t>1995Q4</t>
+  </si>
+  <si>
+    <t>1996Q1</t>
+  </si>
+  <si>
+    <t>1996Q2</t>
+  </si>
+  <si>
+    <t>1996Q3</t>
+  </si>
+  <si>
+    <t>1996Q4</t>
+  </si>
+  <si>
+    <t>1997Q1</t>
+  </si>
+  <si>
+    <t>1997Q2</t>
+  </si>
+  <si>
+    <t>1997Q3</t>
+  </si>
+  <si>
+    <t>1997Q4</t>
+  </si>
+  <si>
+    <t>1998Q1</t>
+  </si>
+  <si>
+    <t>1998Q2</t>
+  </si>
+  <si>
+    <t>1998Q3</t>
+  </si>
+  <si>
+    <t>1998Q4</t>
+  </si>
+  <si>
+    <t>1999Q1</t>
+  </si>
+  <si>
+    <t>1999Q2</t>
+  </si>
+  <si>
+    <t>1999Q3</t>
+  </si>
+  <si>
+    <t>1999Q4</t>
+  </si>
+  <si>
+    <t>2000Q1</t>
+  </si>
+  <si>
+    <t>2000Q2</t>
+  </si>
+  <si>
+    <t>2000Q3</t>
+  </si>
+  <si>
+    <t>2000Q4</t>
+  </si>
+  <si>
+    <t>2001Q1</t>
+  </si>
+  <si>
+    <t>2001Q2</t>
+  </si>
+  <si>
+    <t>2001Q3</t>
+  </si>
+  <si>
+    <t>2001Q4</t>
+  </si>
+  <si>
+    <t>2002Q1</t>
+  </si>
+  <si>
+    <t>2002Q2</t>
+  </si>
+  <si>
+    <t>2002Q3</t>
+  </si>
+  <si>
+    <t>2002Q4</t>
+  </si>
+  <si>
+    <t>2003Q1</t>
+  </si>
+  <si>
+    <t>2003Q2</t>
+  </si>
+  <si>
+    <t>2003Q3</t>
+  </si>
+  <si>
+    <t>2003Q4</t>
+  </si>
+  <si>
+    <t>2004Q1</t>
+  </si>
+  <si>
+    <t>2004Q2</t>
+  </si>
+  <si>
+    <t>2004Q3</t>
+  </si>
+  <si>
+    <t>2004Q4</t>
+  </si>
+  <si>
+    <t>2005Q1</t>
+  </si>
+  <si>
+    <t>2005Q2</t>
+  </si>
+  <si>
+    <t>2005Q3</t>
+  </si>
+  <si>
+    <t>2005Q4</t>
+  </si>
+  <si>
+    <t>2006Q1</t>
+  </si>
+  <si>
+    <t>2006Q2</t>
+  </si>
+  <si>
+    <t>2006Q3</t>
+  </si>
+  <si>
+    <t>2006Q4</t>
+  </si>
+  <si>
+    <t>2007Q1</t>
+  </si>
+  <si>
+    <t>2007Q2</t>
+  </si>
+  <si>
+    <t>2007Q3</t>
+  </si>
+  <si>
+    <t>2007Q4</t>
+  </si>
+  <si>
+    <t>2008Q1</t>
+  </si>
+  <si>
+    <t>2008Q2</t>
+  </si>
+  <si>
+    <t>2008Q3</t>
+  </si>
+  <si>
+    <t>2008Q4</t>
+  </si>
+  <si>
+    <t>2009Q1</t>
+  </si>
+  <si>
+    <t>2009Q2</t>
+  </si>
+  <si>
+    <t>2009Q3</t>
+  </si>
+  <si>
+    <t>2009Q4</t>
+  </si>
+  <si>
+    <t>2010Q1</t>
+  </si>
+  <si>
+    <t>2010Q2</t>
+  </si>
+  <si>
+    <t>2010Q3</t>
+  </si>
+  <si>
+    <t>2010Q4</t>
+  </si>
+  <si>
+    <t>2011Q1</t>
+  </si>
+  <si>
+    <t>2011Q2</t>
+  </si>
+  <si>
+    <t>2011Q3</t>
+  </si>
+  <si>
+    <t>2011Q4</t>
+  </si>
+  <si>
+    <t>2012Q1</t>
+  </si>
+  <si>
+    <t>2012Q2</t>
+  </si>
+  <si>
+    <t>2012Q3</t>
+  </si>
+  <si>
+    <t>2012Q4</t>
+  </si>
+  <si>
+    <t>2013Q1</t>
+  </si>
+  <si>
+    <t>2013Q2</t>
+  </si>
+  <si>
+    <t>2013Q3</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q1</t>
+  </si>
+  <si>
+    <t>2014Q2</t>
+  </si>
+  <si>
+    <t>2014Q3</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
+  </si>
+  <si>
+    <t>2015Q1</t>
+  </si>
+  <si>
+    <t>2015Q2</t>
+  </si>
+  <si>
+    <t>2015Q3</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>2016Q1</t>
+  </si>
+  <si>
+    <t>2016Q2</t>
+  </si>
+  <si>
+    <t>2016Q3</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
+  </si>
+  <si>
+    <t>2017Q1</t>
+  </si>
+  <si>
+    <t>2017Q2</t>
+  </si>
+  <si>
+    <t>2017Q3</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>2018Q1</t>
+  </si>
+  <si>
+    <t>2018Q2</t>
+  </si>
+  <si>
+    <t>2018Q3</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q1</t>
+  </si>
+  <si>
+    <t>2019Q2</t>
+  </si>
+  <si>
+    <t>2019Q3</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>2020Q1</t>
+  </si>
+  <si>
+    <t>2020Q2</t>
+  </si>
+  <si>
+    <t>2020Q3</t>
+  </si>
+  <si>
+    <t>2020Q4</t>
+  </si>
+  <si>
+    <t>2021Q1</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
   </si>
 </sst>
 </file>
@@ -434,8 +434,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="200" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -477,8 +477,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="200" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9107820-5182-D94D-A7DF-9D15C1A909BA}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
